--- a/data/income_statement/2digits/size/38_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/38_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>38-Waste collection, treatment and disposal activities; materials recovery</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>38-Waste collection, treatment and disposal activities; materials recovery</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,287 +841,327 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>304686.99325</v>
+        <v>314509.6105</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>531455.66968</v>
+        <v>537755.20462</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>575045.0633299999</v>
+        <v>580462.82184</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>625919.42218</v>
+        <v>638260.33259</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1092271.28053</v>
+        <v>1131681.37517</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1270877.08455</v>
+        <v>1337244.0885</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1349378.39581</v>
+        <v>1470181.13589</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1580415.80872</v>
+        <v>1700759.28359</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1869755.45544</v>
+        <v>2020489.57447</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6042460.286309999</v>
+        <v>6186437.874770001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5500185.030590001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5884261.35091</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6889249.182</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>293673.72541</v>
+        <v>299772.97831</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>515625.1343</v>
+        <v>517449.63393</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>559699.7934099999</v>
+        <v>564108.9215000001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>576632.44753</v>
+        <v>589474.50046</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1035731.15386</v>
+        <v>1074805.97055</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1196760.09763</v>
+        <v>1248297.06268</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1247400.81329</v>
+        <v>1355270.36641</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1495610.73056</v>
+        <v>1603123.44023</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1745585.78923</v>
+        <v>1891637.46234</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5691379.18817</v>
+        <v>5820180.302159999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5087083.844469999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5453988.174149999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6476041.545</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>5240.711689999999</v>
+        <v>8157.314270000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>10952.32304</v>
+        <v>11663.83166</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>10960.39728</v>
+        <v>10849.8737</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>35469.90803</v>
+        <v>35412.7321</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>40613.70972</v>
+        <v>40513.07369</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>52908.25575</v>
+        <v>67014.06812000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>71214.04583</v>
+        <v>80363.10920000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>60135.89248</v>
+        <v>67566.10481</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>98013.83803</v>
+        <v>100360.59343</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>293205.08965</v>
+        <v>293321.30867</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>337317.32561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>345992.70557</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>324395.507</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5772.556149999999</v>
+        <v>6579.31792</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>4878.21234</v>
+        <v>8641.739029999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>4384.872640000001</v>
+        <v>5504.02664</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>13817.06662</v>
+        <v>13373.10003</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>15926.41695</v>
+        <v>16362.33093</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>21208.73117</v>
+        <v>21932.9577</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>30763.53669</v>
+        <v>34547.66028</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>24669.18568</v>
+        <v>30069.73855</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>26155.82818</v>
+        <v>28491.5187</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>57876.00849</v>
+        <v>72936.26394</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>75783.86051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>84280.47119</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>88812.13</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1877.24305</v>
+        <v>1925.72969</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1427.36514</v>
+        <v>1299.28895</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1685.22184</v>
+        <v>1820.66764</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1953.45135</v>
+        <v>2114.20533</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4692.44197</v>
+        <v>5361.76171</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6011.94625</v>
+        <v>6746.09834</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3749.16782</v>
+        <v>5344.000649999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5050.4129</v>
+        <v>5501.197990000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>5523.91063</v>
+        <v>8000.630740000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>30797.25334</v>
+        <v>31109.93938</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>25440.0726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>31027.09399</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>109957.26</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>738.16374</v>
+        <v>786.20123</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1152.97972</v>
+        <v>1007.62599</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1622.07941</v>
+        <v>1757.55131</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1730.17</v>
+        <v>1885.87157</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4350.875019999999</v>
+        <v>4982.47042</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5287.53327</v>
+        <v>5958.944079999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3423.95392</v>
+        <v>4200.66362</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4640.502850000001</v>
+        <v>4613.58794</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>4890.67107</v>
+        <v>6636.24535</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>21360.3949</v>
+        <v>21506.9535</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>21789.77664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>24350.7681</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>91029.842</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1103.28552</v>
+        <v>1103.73467</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>21.29701</v>
+        <v>38.57455</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>15.51492</v>
+        <v>20.76964</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>43.63162</v>
+        <v>48.01439</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>115.11499</v>
+        <v>152.83933</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>160.87996</v>
+        <v>182.57719</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>168.29127</v>
+        <v>194.91154</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>253.5716</v>
+        <v>234.08185</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>435.4285699999999</v>
+        <v>434.34567</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>5970.320110000001</v>
+        <v>6061.536589999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1860.13509</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1977.28116</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2033.41</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>35.79379</v>
@@ -1229,238 +1170,268 @@
         <v>253.08841</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>47.62751</v>
+        <v>42.34669</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>179.64973</v>
+        <v>180.31937</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>226.45196</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>563.53302</v>
+        <v>604.57707</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>156.92263</v>
+        <v>948.42549</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>156.33845</v>
+        <v>653.5282</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>197.81099</v>
+        <v>930.03972</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3466.53833</v>
+        <v>3541.44929</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1790.16087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4699.044730000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>16894.008</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>302809.7502</v>
+        <v>312583.88081</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>530028.30454</v>
+        <v>536455.9156699999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>573359.84149</v>
+        <v>578642.1542</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>623965.97083</v>
+        <v>636146.1272599999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1087578.83856</v>
+        <v>1126319.61346</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1264865.1383</v>
+        <v>1330497.99016</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1345629.22799</v>
+        <v>1464837.13524</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1575365.39582</v>
+        <v>1695258.0856</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1864231.54481</v>
+        <v>2012488.94373</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6011663.03297</v>
+        <v>6155327.935389999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5474744.95799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5853234.256920001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6779291.922</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>260628.8088</v>
+        <v>268121.88692</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>471834.06112</v>
+        <v>479278.17138</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>503208.64237</v>
+        <v>507888.49954</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>543750.7639</v>
+        <v>553598.90007</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>948360.2426700001</v>
+        <v>992477.97934</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1106126.67505</v>
+        <v>1165253.27765</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1176458.81107</v>
+        <v>1276480.24878</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1377996.85985</v>
+        <v>1482599.91593</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1606133.94566</v>
+        <v>1746563.15822</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5411680.09862</v>
+        <v>5527130.47198</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4925172.60265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5238886.3833</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6153663.359</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>94191.66992</v>
+        <v>97306.86642000001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>180285.61606</v>
+        <v>181297.64421</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>236207.5612</v>
+        <v>237778.96503</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>221567.11282</v>
+        <v>222680.08107</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>400155.43459</v>
+        <v>422599.8789</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>382800.75071</v>
+        <v>403381.43354</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>329480.92574</v>
+        <v>369027.37533</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>412998.70679</v>
+        <v>445059.83936</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>481748.1470599999</v>
+        <v>520358.62001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2141785.82622</v>
+        <v>2155921.37916</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1535691.26156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1591943.58849</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1572380.237</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>119387.61311</v>
+        <v>120510.01468</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>248135.73321</v>
+        <v>249566.05485</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>197416.693</v>
+        <v>197036.69858</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>207691.3281</v>
+        <v>209805.34448</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>398346.98505</v>
+        <v>403580.65329</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>529339.4370200001</v>
+        <v>536502.87691</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>544331.86778</v>
+        <v>575635.3471</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>719157.7230700001</v>
+        <v>748597.18482</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>821219.39368</v>
+        <v>867584.63801</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2838388.41059</v>
+        <v>2865864.96583</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2775639.119359999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2915704.79177</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3869941.963</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>45810.90738</v>
+        <v>49066.38743</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>42955.29579</v>
+        <v>45990.05626</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>69576.53354</v>
+        <v>73064.9813</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>111212.11143</v>
+        <v>117833.26297</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>149808.20725</v>
+        <v>165873.62062</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>185775.71968</v>
+        <v>216987.4052</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>297697.25588</v>
+        <v>327296.22872</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>240087.27516</v>
+        <v>282709.34033</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>297384.42168</v>
+        <v>352581.23016</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>406311.63367</v>
+        <v>479459.23651</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>593677.6098000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>712764.17675</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>682078.912</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1238.61839</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>457.41606</v>
+        <v>2424.41606</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>7.85463</v>
@@ -1469,109 +1440,124 @@
         <v>3280.21155</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>49.61578</v>
+        <v>423.82653</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>8210.76764</v>
+        <v>8381.562</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4948.761669999999</v>
+        <v>4521.29763</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>5753.15483</v>
+        <v>6233.55142</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>5781.98324</v>
+        <v>6038.67004</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>25194.22814</v>
+        <v>25884.89048</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>20164.61193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18473.82629</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>29262.247</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>42180.9414</v>
+        <v>44461.99389</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>58194.24342</v>
+        <v>57177.74429</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>70151.19912</v>
+        <v>70753.65466</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>80215.20693</v>
+        <v>82547.22719000002</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>139218.59589</v>
+        <v>133841.63412</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>158738.46325</v>
+        <v>165244.71251</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>169170.41692</v>
+        <v>188356.88646</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>197368.53597</v>
+        <v>212658.16967</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>258097.59915</v>
+        <v>265925.78551</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>599982.93435</v>
+        <v>628197.4634100001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>549572.3553399999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>614347.87362</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>625628.563</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>33780.61985</v>
+        <v>37749.06304</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>42106.5799</v>
+        <v>47651.13033</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>59619.54317</v>
+        <v>68045.64154000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>69066.65776999999</v>
+        <v>75181.14174000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>109933.60839</v>
+        <v>117334.26204</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>116654.88155</v>
+        <v>128378.93559</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>138991.72001</v>
+        <v>155372.92693</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>163745.47113</v>
+        <v>175446.15279</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>200230.18845</v>
+        <v>208271.54072</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>396307.60918</v>
+        <v>419337.7814500001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>426173.82727</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>453340.17615</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>472136.262</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>7.90958</v>
@@ -1589,16 +1575,16 @@
         <v>65.52857</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>62.14885</v>
+        <v>52.74885</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1.411</v>
+        <v>47.87328</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>157.15815</v>
+        <v>138.00889</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>756.36456</v>
+        <v>748.3622800000001</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>8.48751</v>
@@ -1606,206 +1592,236 @@
       <c r="M21" s="48" t="n">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>98.261</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>8264.306860000001</v>
+        <v>8491.883280000002</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>10890.20173</v>
+        <v>11644.46923</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>18313.6404</v>
+        <v>19066.60959</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>17288.34585</v>
+        <v>19578.58659</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>31598.46102</v>
+        <v>32089.18483999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>34945.87603</v>
+        <v>40033.44436</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>41777.60451999999</v>
+        <v>44358.83253</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>40592.6985</v>
+        <v>42771.48206</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>49911.63257</v>
+        <v>55724.89827</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>134154.40964</v>
+        <v>136825.36783</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>118177.9056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>124837.479</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>118892.672</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>25508.40341</v>
+        <v>29249.27018</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>31213.10721</v>
+        <v>36003.39014</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>41225.6394</v>
+        <v>48898.76858</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>51768.43354</v>
+        <v>55592.67677</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>78269.6188</v>
+        <v>85179.54863</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>81646.85667000001</v>
+        <v>88292.74238</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>97212.70449</v>
+        <v>110966.22112</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>122995.61448</v>
+        <v>132536.66184</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>149562.19132</v>
+        <v>151798.28017</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>262144.71203</v>
+        <v>282503.92611</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>307994.52167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>328501.29715</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>353145.329</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>8400.321550000001</v>
+        <v>6712.930850000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>16087.66352</v>
+        <v>9526.613960000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>10531.65595</v>
+        <v>2708.013120000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>11148.54916</v>
+        <v>7366.085450000001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>29284.9875</v>
+        <v>16507.37208</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>42083.5817</v>
+        <v>36865.77692</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>30178.69691</v>
+        <v>32983.95953</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>33623.06484000001</v>
+        <v>37212.01688</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>57867.4107</v>
+        <v>57654.24479</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>203675.32517</v>
+        <v>208859.68196</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>123398.52807</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>161007.69747</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>153492.301</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>4107.50572</v>
+        <v>6262.5236</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2468.99591</v>
+        <v>4797.805479999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4522.31395</v>
+        <v>6954.8986</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>5949.81605</v>
+        <v>12432.19812</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>7857.80163</v>
+        <v>21614.02659</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8060.23807</v>
+        <v>20451.06782</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>17967.14141</v>
+        <v>50403.47794</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>18951.8634</v>
+        <v>47830.74423999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>21170.42533</v>
+        <v>34353.64184999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>93499.21018000001</v>
+        <v>204913.71509</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>68068.92079999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>98319.3949</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>159302.009</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2066.47954</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>73.18512</v>
+        <v>997.03889</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>1.02053</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>257.44683</v>
+        <v>41.84077</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>262.38569</v>
+        <v>1773.84847</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>236.8856</v>
+        <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>248.35612</v>
+        <v>7220.6316</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>223.91627</v>
+        <v>17903.27615</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1426.02834</v>
+        <v>5279.41497</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>5708.759349999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>7765.235320000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1429.46961</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>581.151</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,7 +1833,7 @@
         <v>39.81381</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>822.20573</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>0</v>
@@ -1826,64 +1842,74 @@
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>189.35456</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>4596.368719999999</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>12.78709</v>
+        <v>4625.96404</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>62749.7781</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>751.3059000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>7089.06023</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>574.599</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>164.16566</v>
+        <v>1066.96602</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>405.47475</v>
+        <v>1004.39047</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>132.35981</v>
+        <v>1096.83725</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>457.56068</v>
+        <v>4311.054329999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1508.30041</v>
+        <v>5819.271370000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1073.47993</v>
+        <v>7002.36897</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1481.55968</v>
+        <v>10445.64065</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2176.38071</v>
+        <v>3398.94919</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3182.6234</v>
+        <v>2843.885020000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>13295.03989</v>
+        <v>19348.9549</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>16219.62419</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>24115.87938</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>16719.566</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1892,16 +1918,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>0</v>
+        <v>16.20422</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>200.55102</v>
+        <v>0.55102</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>80.35122</v>
+        <v>83.94242</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>1.65646</v>
@@ -1910,7 +1936,7 @@
         <v>208.6582</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>327.98446</v>
+        <v>24.88485</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>13.96408</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>19.64204</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>282.33331</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>101.04589</v>
+        <v>570.6856700000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1379.10034</v>
+        <v>1378.59034</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>1836.92751</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>215.17346</v>
+        <v>39.9059</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>34.09764</v>
+        <v>1636.53424</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1885.08807</v>
+        <v>5102.55119</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>958.74704</v>
+        <v>516.8600299999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>918.09692</v>
+        <v>823.56894</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>899.0864099999999</v>
+        <v>953.93057</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>390.35795</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>403.652</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1479.692</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>25.9583</v>
+        <v>26.16697</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2.09097</v>
+        <v>1.1738</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>166.83098</v>
+        <v>166.96067</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>177.65911</v>
+        <v>178.12001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>47.24607</v>
+        <v>46.91227</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>36.44019</v>
+        <v>70.53155000000001</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>250.73639</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>90.22530999999999</v>
+        <v>94.77289</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>412.93383</v>
+        <v>408.67628</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2699.87653</v>
+        <v>316.07953</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>292.0453</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>309.6942300000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>215.162</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1217.79682</v>
+        <v>2501.92311</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1234.91388</v>
+        <v>1275.9062</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1282.41206</v>
+        <v>2705.59663</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2017.67623</v>
+        <v>2676.58645</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>4288.27993</v>
+        <v>5168.85786</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2935.83508</v>
+        <v>5667.0587</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>11287.44872</v>
+        <v>24306.81159</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>10551.79228</v>
+        <v>17434.7945</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>9913.77324</v>
+        <v>15563.48006</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>61322.78339</v>
+        <v>102981.26647</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>25515.82657</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>43589.12328</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>97207.967</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2057,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>24.29509</v>
+        <v>823.74916</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>416.87949</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>47.622</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>111.95518</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>97.71517999999999</v>
+        <v>97.3593</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>367.37246</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>62.31547</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1.729</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>350.77209</v>
+        <v>318.6546499999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>637.28895</v>
+        <v>933.6141000000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1490.11616</v>
+        <v>1519.21489</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1001.99467</v>
+        <v>2564.9123</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1536.41607</v>
+        <v>8765.230720000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3638.85332</v>
+        <v>5166.88278</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2812.29597</v>
+        <v>2886.0955</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4630.18841</v>
+        <v>3565.10938</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>4877.57004</v>
+        <v>4685.49556</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>9190.17699</v>
+        <v>12471.45855</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>16635.68857</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>20883.67917</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>42386.021</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1867.95595</v>
+        <v>3020.87115</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2113.21261</v>
+        <v>2947.88959</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3384.47289</v>
+        <v>3856.42287</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2567.06473</v>
+        <v>3293.58737</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>10121.33208</v>
+        <v>16092.56282</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5397.7625</v>
+        <v>12221.30345</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>17600.29835</v>
+        <v>25448.47626</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>18145.80558</v>
+        <v>27686.10949</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>18837.35814</v>
+        <v>21341.03828</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>81782.06684999999</v>
+        <v>141334.97818</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>46440.1859</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>87203.43805</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>126423.252</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>12.83016</v>
@@ -2207,73 +2273,83 @@
         <v>14.60733</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>92.65406999999999</v>
+        <v>90.98842999999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>97.44309999999999</v>
+        <v>96.47375</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>85.56931000000002</v>
+        <v>93.72345000000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>28.5172</v>
+        <v>48.11971</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>30.93773</v>
+        <v>51.29202</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>92.17715000000001</v>
+        <v>28.35799</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>192.69768</v>
+        <v>218.17805</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>294.64813</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>247.43126</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>879.299</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>510.04123</v>
+        <v>506.13139</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>755.7958599999999</v>
+        <v>1160.17728</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>493.3921</v>
+        <v>448.3921</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>382.11527</v>
+        <v>747.5184399999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2665.35416</v>
+        <v>4934.79539</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>511.07113</v>
+        <v>547.05962</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>803.32096</v>
+        <v>977.8209600000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2299.18459</v>
+        <v>2319.10426</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2696.68289</v>
+        <v>2778.59956</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>3496.08249</v>
+        <v>3550.68028</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4712.27854</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>15121.4056</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3049.691</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>36.2558</v>
@@ -2291,10 +2367,10 @@
         <v>113.21039</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0</v>
+        <v>101.38841</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>38.916</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>10.76946</v>
@@ -2303,55 +2379,65 @@
         <v>168.75028</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0.42257</v>
+        <v>10453.89257</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>11264.4517</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>974.49467</v>
+        <v>2148.44027</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>919.1539399999999</v>
+        <v>1220.05841</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2011.31952</v>
+        <v>2584.81528</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1747.82525</v>
+        <v>2143.41429</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>6794.858649999999</v>
+        <v>8714.044649999998</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3692.39661</v>
+        <v>9887.70426</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>14571.08266</v>
+        <v>21339.83642</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>13729.11215</v>
+        <v>23311.14373</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>11899.00088</v>
+        <v>16346.35873</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>75027.18626999999</v>
+        <v>120677.50606</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>23307.35192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>50543.28818</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>101496.698</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>91.09322</v>
@@ -2366,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>465.0034</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0</v>
+        <v>334.45067</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>392.76069</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>11.006</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,245 +2516,280 @@
       <c r="M42" s="48" t="n">
         <v>242.71806</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1071.586</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>243.24087</v>
+        <v>226.12031</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>429.13811</v>
+        <v>558.5291999999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>236.78437</v>
+        <v>180.23859</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>338.51719</v>
+        <v>305.71326</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>450.4657800000001</v>
+        <v>1769.03524</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1103.55272</v>
+        <v>1251.80431</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2158.46153</v>
+        <v>3012.70917</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1951.48191</v>
+        <v>1869.48028</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3964.75748</v>
+        <v>2002.98226</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2895.52776</v>
+        <v>6264.571140000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6225.976860000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9391.38256</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>19914.651</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>5011.38061</v>
+        <v>5432.3295</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4468.52451</v>
+        <v>4661.15655</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>6157.66332</v>
+        <v>8921.437709999998</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>7943.95259</v>
+        <v>8117.6597</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>12336.06655</v>
+        <v>14026.74599</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>16422.94251</v>
+        <v>18601.98512</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>18757.5605</v>
+        <v>27947.66364</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>28820.84872</v>
+        <v>37291.70368999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>21931.30566</v>
+        <v>28710.58404</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>80674.14453000001</v>
+        <v>94340.14693</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>81462.08031</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>107966.80587</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>100062.945</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4740.26482</v>
+        <v>5161.21371</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>4340.63925</v>
+        <v>4534.49017</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>5925.69887</v>
+        <v>8698.258880000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>7736.02196</v>
+        <v>7920.64663</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>11670.64056</v>
+        <v>13358.25676</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>15883.86913</v>
+        <v>17994.40863</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>18167.91325</v>
+        <v>26358.1037</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>27504.53227</v>
+        <v>36146.64445</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>19895.15711</v>
+        <v>26996.99526</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>78737.80907999999</v>
+        <v>92486.64086</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>75788.31447</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>103785.09479</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>85790.774</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>271.11579</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>127.88526</v>
+        <v>126.66638</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>231.96445</v>
+        <v>223.17883</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>207.93063</v>
+        <v>197.01307</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>665.42599</v>
+        <v>668.48923</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>539.07338</v>
+        <v>607.5764900000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>589.64725</v>
+        <v>1589.55994</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1316.31645</v>
+        <v>1145.05924</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2036.14855</v>
+        <v>1713.58878</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1936.33545</v>
+        <v>1853.50607</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>5673.76584</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4181.71108</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>14272.171</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5628.49071</v>
+        <v>4522.2538</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>11974.92231</v>
+        <v>6715.3733</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>5511.833689999999</v>
+        <v>-3114.94886</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>6587.347890000001</v>
+        <v>8387.0365</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>14685.3905</v>
+        <v>8002.089859999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>28323.11476</v>
+        <v>26493.55617</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>11787.97947</v>
+        <v>29991.29757</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5608.27394</v>
+        <v>20064.94794</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>38269.17223</v>
+        <v>41956.26432</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>134718.32397</v>
+        <v>178098.27194</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>63565.18266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>64156.84845</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>86308.113</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1610.25351</v>
+        <v>1583.29173</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3965.94868</v>
+        <v>4118.983230000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>3587.18284</v>
+        <v>3648.83722</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4781.835349999999</v>
+        <v>4387.96761</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6619.623630000001</v>
+        <v>7294.13716</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>11629.33536</v>
+        <v>13094.2186</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>11386.11943</v>
+        <v>22466.63958</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>15062.11293</v>
+        <v>10863.29536</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>16071.72598</v>
+        <v>18232.38586</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>20393.39298</v>
+        <v>17508.52993</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>37533.46029</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>49654.38827</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>48916.079</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2681,109 +2807,124 @@
         <v>43.13747</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4.77263</v>
+        <v>11.18404</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>35.98403</v>
+        <v>40.45068</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>93.16632999999999</v>
+        <v>92.75313</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>5.401860000000001</v>
+        <v>7.5359</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>60.28847999999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1688.65853</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1688.80563</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3303.332</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1610.25351</v>
+        <v>1583.29173</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3909.03833</v>
+        <v>4062.07288</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>3526.77199</v>
+        <v>3588.42637</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>4763.860519999999</v>
+        <v>4369.99278</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6576.48616</v>
+        <v>7250.99969</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>11624.56273</v>
+        <v>13083.03456</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>11350.1354</v>
+        <v>22426.1889</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>14968.9466</v>
+        <v>10770.54223</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>16066.32412</v>
+        <v>18224.84996</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>20333.1045</v>
+        <v>17448.24145</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>35844.80175999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>47965.58264</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>45612.747</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1244.9587</v>
+        <v>1444.63907</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1092.06776</v>
+        <v>1269.38247</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>11842.08707</v>
+        <v>11136.1946</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5205.42667</v>
+        <v>4827.840730000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>8865.91164</v>
+        <v>12310.81914</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>18169.65918</v>
+        <v>20308.6606</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>13831.96706</v>
+        <v>17497.78627</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>34764.2766</v>
+        <v>28381.88091</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>13757.11165</v>
+        <v>10646.96235</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>64937.91685</v>
+        <v>58412.05208</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>24775.80526</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>42743.13755</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>36151.557</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>0.36694</v>
+        <v>74.23369</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>303.19213</v>
@@ -2795,223 +2936,251 @@
         <v>1306.58185</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>951.6502800000001</v>
+        <v>3962.57122</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>900.91542</v>
+        <v>865.7473899999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2591.91725</v>
+        <v>1606.70409</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3469.17183</v>
+        <v>368.86501</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>985.71359</v>
+        <v>725.5311599999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2972.6655</v>
+        <v>2648.97535</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1780.47408</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3368.59952</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>9417.832</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>22.60634</v>
+        <v>77.32250000000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>6.81692</v>
+        <v>8.303370000000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>76.34335</v>
+        <v>36.78836</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>481.72354</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>45.76761</v>
+        <v>44.01922999999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>74.55938999999999</v>
+        <v>76.98818000000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>205.29019</v>
+        <v>71.72777000000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>190.45243</v>
+        <v>251.52599</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>396.02863</v>
+        <v>494.7539</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>862.71264</v>
+        <v>754.9963300000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>377.06868</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8926.20427</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6209.008</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1221.98542</v>
+        <v>1293.08288</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>782.05871</v>
+        <v>957.88697</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>11615.86345</v>
+        <v>10949.52597</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3417.12128</v>
+        <v>3039.53534</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7868.49375</v>
+        <v>8304.22869</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>17194.18437</v>
+        <v>19365.92503</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11034.75962</v>
+        <v>15819.35441</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>31104.65234</v>
+        <v>27761.48991</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>12375.36943</v>
+        <v>9426.67729</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>61102.53871</v>
+        <v>55008.08039999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>22618.2625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>30448.33376</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>20524.717</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>5993.78552</v>
+        <v>4660.90646</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>14848.80323</v>
+        <v>9564.97406</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2743.07054</v>
+        <v>-10602.30624</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6163.75657</v>
+        <v>7947.16338</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>12439.10249</v>
+        <v>2985.407879999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>21782.79094</v>
+        <v>19279.11417</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>9342.13184</v>
+        <v>34960.15088</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-14093.88973</v>
+        <v>2546.362390000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>40583.78656</v>
+        <v>49541.68783</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>90173.80009999999</v>
+        <v>137194.74979</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>76322.83769</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>71068.09917</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>99072.63499999999</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1653.78269</v>
+        <v>1883.23229</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3043.08295</v>
+        <v>3051.779070000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2910.4204</v>
+        <v>3092.31167</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3724.3534</v>
+        <v>3692.75482</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>5289.05285</v>
+        <v>5895.26666</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6500.582109999999</v>
+        <v>6992.037530000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7113.62841</v>
+        <v>8643.008760000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>8257.505620000002</v>
+        <v>9923.400089999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>9127.722790000002</v>
+        <v>11409.12309</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>34173.21109</v>
+        <v>37056.96212</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>28698.02689</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>29053.60392</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>32298.808</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4340.00283</v>
+        <v>2777.67417</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>11805.72028</v>
+        <v>6513.19499</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-5653.49094</v>
+        <v>-13694.61791</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2439.403169999999</v>
+        <v>4254.408560000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>7150.04964</v>
+        <v>-2909.85878</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>15282.20883</v>
+        <v>12287.07664</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2228.50343</v>
+        <v>26317.14212</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-22351.39535</v>
+        <v>-7377.037699999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>31456.06377</v>
+        <v>38132.56473999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>56000.58901</v>
+        <v>100137.78767</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>47624.8108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>42014.49525</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>66773.827</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>485</v>
+        <v>395</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>516</v>
+        <v>409</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>449</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>